--- a/arquivos/planilhas/tabelao.xlsx
+++ b/arquivos/planilhas/tabelao.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>MARCA</t>
   </si>
@@ -70,36 +70,6 @@
   </si>
   <si>
     <t>CAPACIDADE</t>
-  </si>
-  <si>
-    <t>MTR-3338</t>
-  </si>
-  <si>
-    <t>MTV-4311</t>
-  </si>
-  <si>
-    <t>MQZ-8687</t>
-  </si>
-  <si>
-    <t>MTB-1361</t>
-  </si>
-  <si>
-    <t>MSG-4883</t>
-  </si>
-  <si>
-    <t>MSZ-7251</t>
-  </si>
-  <si>
-    <t>MRB-6206</t>
-  </si>
-  <si>
-    <t>MRY-5351</t>
-  </si>
-  <si>
-    <t>MRF-7474</t>
-  </si>
-  <si>
-    <t>MSI-6750</t>
   </si>
   <si>
     <t>NOME</t>
@@ -296,10 +266,37 @@
     <t>HORA_DESCARTE</t>
   </si>
   <si>
-    <t>VOLUME_COLETADO</t>
-  </si>
-  <si>
-    <t>VOLUME_DESCARTADO</t>
+    <t>MTR3338</t>
+  </si>
+  <si>
+    <t>MTV4311</t>
+  </si>
+  <si>
+    <t>MQZ8687</t>
+  </si>
+  <si>
+    <t>MTB1361</t>
+  </si>
+  <si>
+    <t>MSG4883</t>
+  </si>
+  <si>
+    <t>MSZ7251</t>
+  </si>
+  <si>
+    <t>MRB6206</t>
+  </si>
+  <si>
+    <t>MRY5351</t>
+  </si>
+  <si>
+    <t>MRF7474</t>
+  </si>
+  <si>
+    <t>MSI6750</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
   </si>
 </sst>
 </file>
@@ -360,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,9 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -812,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -837,12 +831,12 @@
     <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="17" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -857,16 +851,16 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>14</v>
@@ -875,13 +869,13 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>14</v>
@@ -917,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>12</v>
@@ -929,49 +923,49 @@
         <v>87</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
@@ -979,13 +973,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E2" s="13">
         <v>-20.050771130000001</v>
@@ -997,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J2" s="13">
         <v>-20.1961361</v>
@@ -1015,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="O2" s="9">
         <v>-20.1961361</v>
@@ -1023,7 +1017,7 @@
       <c r="P2" s="9">
         <v>-40.2555063</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="27">
         <v>11000</v>
       </c>
       <c r="R2" s="6">
@@ -1044,8 +1038,8 @@
       <c r="W2" s="22">
         <v>1</v>
       </c>
-      <c r="X2" s="19">
-        <v>144</v>
+      <c r="X2" s="16">
+        <v>50</v>
       </c>
       <c r="Y2" s="17">
         <v>43544</v>
@@ -1072,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AH2" s="5">
         <v>79422697522</v>
@@ -1098,13 +1092,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E3" s="13">
         <v>-20.086888510000001</v>
@@ -1116,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J3" s="13">
         <v>-20.198240299999998</v>
@@ -1134,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="O3" s="9">
         <v>-20.198240299999998</v>
@@ -1142,7 +1136,7 @@
       <c r="P3" s="9">
         <v>-40.253086099999997</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="27">
         <v>10000</v>
       </c>
       <c r="R3" s="6" t="s">
@@ -1163,8 +1157,8 @@
       <c r="W3" s="4">
         <v>1</v>
       </c>
-      <c r="X3" s="19">
-        <v>194</v>
+      <c r="X3" s="16">
+        <v>46</v>
       </c>
       <c r="Y3" s="17">
         <v>43544</v>
@@ -1173,7 +1167,7 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="AA3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="12">
         <v>2</v>
@@ -1191,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AH3" s="5">
         <v>32137438011</v>
@@ -1217,13 +1211,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E4" s="13">
         <v>-20.200346010000001</v>
@@ -1235,10 +1229,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J4" s="13">
         <v>-20.198687499999998</v>
@@ -1246,14 +1240,14 @@
       <c r="K4" s="13">
         <v>-40.258083499999998</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>205</v>
       </c>
       <c r="M4" s="4">
         <v>3</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="O4" s="9">
         <v>-20.198687499999998</v>
@@ -1261,7 +1255,7 @@
       <c r="P4" s="9">
         <v>-40.258083499999998</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="27">
         <v>12100</v>
       </c>
       <c r="R4" s="6" t="s">
@@ -1282,8 +1276,8 @@
       <c r="W4" s="4">
         <v>2</v>
       </c>
-      <c r="X4" s="20">
-        <v>204.45</v>
+      <c r="X4" s="16">
+        <v>48</v>
       </c>
       <c r="Y4" s="17">
         <v>43551</v>
@@ -1292,7 +1286,7 @@
         <v>0.42673611111111098</v>
       </c>
       <c r="AA4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="12">
         <v>3</v>
@@ -1310,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AH4" s="5">
         <v>85592912563</v>
@@ -1336,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E5" s="13">
         <v>-20.26219712</v>
@@ -1354,10 +1348,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J5" s="13">
         <v>-20.1959193</v>
@@ -1365,14 +1359,14 @@
       <c r="K5" s="13">
         <v>-40.258790400000002</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <v>186</v>
       </c>
       <c r="M5" s="4">
         <v>4</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="O5" s="9">
         <v>-20.1959193</v>
@@ -1380,7 +1374,7 @@
       <c r="P5" s="9">
         <v>-40.258790400000002</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="27">
         <v>11000</v>
       </c>
       <c r="R5" s="6" t="s">
@@ -1401,8 +1395,8 @@
       <c r="W5" s="4">
         <v>2</v>
       </c>
-      <c r="X5" s="20">
-        <v>185.57</v>
+      <c r="X5" s="19">
+        <v>64</v>
       </c>
       <c r="Y5" s="17">
         <v>43551</v>
@@ -1411,7 +1405,7 @@
         <v>0.42777777777777798</v>
       </c>
       <c r="AA5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB5" s="12">
         <v>4</v>
@@ -1429,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH5" s="5">
         <v>54883575163</v>
@@ -1440,7 +1434,7 @@
       <c r="AJ5" s="4">
         <v>1</v>
       </c>
-      <c r="AK5" s="29">
+      <c r="AK5" s="28">
         <v>43556</v>
       </c>
       <c r="AL5" s="18">
@@ -1455,13 +1449,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E6" s="13">
         <v>-20.390974409999998</v>
@@ -1473,10 +1467,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J6" s="13">
         <v>-20.192520500000001</v>
@@ -1491,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="O6" s="9">
         <v>-20.192520500000001</v>
@@ -1499,7 +1493,7 @@
       <c r="P6" s="9">
         <v>-40.2568421</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="27">
         <v>10000</v>
       </c>
       <c r="R6" s="6" t="s">
@@ -1521,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="X6" s="19">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="Y6" s="17">
         <v>43551</v>
@@ -1530,7 +1524,7 @@
         <v>0.42916666666666697</v>
       </c>
       <c r="AA6" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="12">
         <v>6</v>
@@ -1548,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AH6" s="5">
         <v>57614486347</v>
@@ -1559,13 +1553,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7" s="13">
         <v>-20.205501210000001</v>
@@ -1577,10 +1571,10 @@
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J7" s="13">
         <v>-20.193270600000002</v>
@@ -1595,7 +1589,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="O7" s="9">
         <v>-20.193270600000002</v>
@@ -1603,7 +1597,7 @@
       <c r="P7" s="9">
         <v>-40.252901299999998</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="27">
         <v>12000</v>
       </c>
       <c r="R7" s="7" t="s">
@@ -1625,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="X7" s="19">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="17">
         <v>43551</v>
@@ -1634,7 +1628,7 @@
         <v>0.43055555555555602</v>
       </c>
       <c r="AA7" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB7" s="12">
         <v>5</v>
@@ -1652,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="AH7" s="5">
         <v>75366268453</v>
@@ -1663,13 +1657,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E8" s="13">
         <v>-20.174567450000001</v>
@@ -1681,10 +1675,10 @@
         <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J8" s="13">
         <v>-20.195081200000001</v>
@@ -1699,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="O8" s="9">
         <v>-20.195081200000001</v>
@@ -1707,7 +1701,7 @@
       <c r="P8" s="9">
         <v>-40.251535199999999</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="27">
         <v>10000</v>
       </c>
       <c r="R8" s="7" t="s">
@@ -1728,8 +1722,8 @@
       <c r="W8" s="4">
         <v>2</v>
       </c>
-      <c r="X8" s="20">
-        <v>30.1</v>
+      <c r="X8" s="19">
+        <v>43</v>
       </c>
       <c r="Y8" s="17">
         <v>43551</v>
@@ -1738,7 +1732,7 @@
         <v>0.43263888888888902</v>
       </c>
       <c r="AA8" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB8" s="12">
         <v>7</v>
@@ -1756,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AH8">
         <v>61646505787</v>
@@ -1767,13 +1761,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E9" s="13">
         <v>-20.295045510000001</v>
@@ -1785,10 +1779,10 @@
         <v>8</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J9" s="13">
         <v>-20.196940900000001</v>
@@ -1803,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="O9" s="9">
         <v>-20.196940900000001</v>
@@ -1811,7 +1805,7 @@
       <c r="P9" s="9">
         <v>-40.2516228</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="27">
         <v>12000</v>
       </c>
       <c r="R9" s="6" t="s">
@@ -1833,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="X9" s="20">
-        <v>59.4</v>
+        <v>61.11</v>
       </c>
       <c r="Y9" s="17">
         <v>43551</v>
@@ -1842,7 +1836,7 @@
         <v>0.43402777777777801</v>
       </c>
       <c r="AA9" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB9" s="12">
         <v>1</v>
@@ -1860,7 +1854,7 @@
         <v>8</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="AH9">
         <v>98624129824</v>
@@ -1871,13 +1865,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E10" s="13">
         <v>-19.295045510000001</v>
@@ -1889,10 +1883,10 @@
         <v>9</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J10" s="13">
         <v>-20.1969499</v>
@@ -1907,7 +1901,7 @@
         <v>9</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="O10" s="9">
         <v>-20.196940900000001</v>
@@ -1936,8 +1930,8 @@
       <c r="W10" s="4">
         <v>2</v>
       </c>
-      <c r="X10" s="25">
-        <v>120</v>
+      <c r="X10" s="20">
+        <v>41.11</v>
       </c>
       <c r="Y10" s="17">
         <v>43551</v>
@@ -1946,7 +1940,7 @@
         <v>0.43402777777777801</v>
       </c>
       <c r="AA10" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB10" s="12">
         <v>2</v>
@@ -1966,13 +1960,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E11" s="13">
         <v>-18.293045509999999</v>
@@ -1984,10 +1978,10 @@
         <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J11" s="13">
         <v>-20.196957900000001</v>
@@ -2002,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="O11" s="9">
         <v>-20.193110600000001</v>
@@ -2031,8 +2025,8 @@
       <c r="W11" s="4">
         <v>2</v>
       </c>
-      <c r="X11" s="25">
-        <v>200</v>
+      <c r="X11" s="20">
+        <v>52.11</v>
       </c>
       <c r="Y11" s="17">
         <v>43551</v>
@@ -2041,7 +2035,7 @@
         <v>0.43402777777777801</v>
       </c>
       <c r="AA11" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AB11" s="12">
         <v>3</v>
@@ -2115,7 +2109,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="4"/>
@@ -2202,7 +2196,7 @@
       <c r="K24" s="13"/>
       <c r="L24" s="4"/>
       <c r="Q24" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="R24" s="4"/>
     </row>
